--- a/DM/MBA DMP/Labs/Module 1.xlsx
+++ b/DM/MBA DMP/Labs/Module 1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMUHD\Desktop\Artificial intelligence\DM\MBA DMP\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A473E96-C3B7-4630-B367-875F2A807554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C732D7-8C2C-4344-BED3-CA6BBBFA686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="0" windowWidth="13830" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1_Lab3" sheetId="1" r:id="rId1"/>
+    <sheet name="gold star scnerio" sheetId="2" r:id="rId2"/>
+    <sheet name="gold start data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Day</t>
   </si>
@@ -76,12 +78,259 @@
   <si>
     <t>ddd</t>
   </si>
+  <si>
+    <t>https://e-research.siam.edu/wp-content/uploads/2019/11/BBA-2017-COOP-Marketing-the-pride-of-Nepal-Goldstar-Shoes-compressed.pdf</t>
+  </si>
+  <si>
+    <t>The Goldstar Shoes marketing case focuses on how a Nepali brand has built strong market presence through product quality, affordability, distribution strength, and brand identity. The report analyses production, sales, inventory, and profitability patterns over time to understand how marketing and operational decisions contribute to business growth. The purpose is to evaluate sales performance, contribution of Goldstar products to overall business, and long-term brand sustainability, using data rather than assumptions.</t>
+  </si>
+  <si>
+    <t>Production_Qty – Number of shoes produced
+Opening_Stock – Inventory at the beginning
+Closing_Stock – Inventory at the end
+Marketing_Expense (assumed) – Promotion &amp; branding cost
+Distribution_Coverage (assumed) – Number of retail outlets
+Price_Per_Pair (assumed average price)</t>
+  </si>
+  <si>
+    <t>Sales_Qty – Number of shoes sold
+Sales_Value – Revenue from Goldstar shoes
+Profit – Net profit from Goldstar products</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Opening_Stock</t>
+  </si>
+  <si>
+    <t>Production_Qty</t>
+  </si>
+  <si>
+    <t>Marketing_Expense</t>
+  </si>
+  <si>
+    <t>Distribution_Coverage</t>
+  </si>
+  <si>
+    <t>Price_Per_Pair</t>
+  </si>
+  <si>
+    <t>Sales_Qty</t>
+  </si>
+  <si>
+    <t>Closing_Stock</t>
+  </si>
+  <si>
+    <t>Sales_Value</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Baishakh</t>
+  </si>
+  <si>
+    <t>Jestha</t>
+  </si>
+  <si>
+    <t>Ashadh</t>
+  </si>
+  <si>
+    <t>Shrawan</t>
+  </si>
+  <si>
+    <t>Bhadra</t>
+  </si>
+  <si>
+    <t>Ashwin</t>
+  </si>
+  <si>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>Mangsir</t>
+  </si>
+  <si>
+    <t>Poush</t>
+  </si>
+  <si>
+    <t>Magh</t>
+  </si>
+  <si>
+    <t>Falgun</t>
+  </si>
+  <si>
+    <t>Chaitra</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EDA 1: Line Chart – Sales_Value by Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+🎯 Purpose: To observe seasonality and festival impact (Dashain–Tihar peak).
+📊 Excel Steps
+Select Column A (Month) and Column I (Sales_Value)
+Click A1:A13
+Hold Ctrl, then select I1:I13
+Go to Insert tab
+Click Line Chart → 2-D Line
+Add chart title:
+“Monthly Sales Value – Goldstar Shoes”
+🔍 Interpretation
+Higher sales in Ashwin–Chaitra indicate festival and winter demand.
+Shows clear seasonal pattern.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EDA 2: Line Chart – Production_Qty vs Sales_Qty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+🎯 Purpose:  To identify over-production or shortages.
+📊 Excel Steps
+Select Column A (Month)
+Hold Ctrl, select:
+Column C (Production_Qty)
+Column G (Sales_Qty)
+Go to Insert → Line Chart
+Add legend to distinguish:
+Production Quantity
+Sales Quantity
+🔍 Interpretation
+When Production &gt; Sales → inventory buildup
+When Sales &gt; Production → potential stock-out risk</t>
+    </r>
+  </si>
+  <si>
+    <t>EDA 3: Scatter Plot – Marketing_Expense vs Sales_Value
+🎯 Purpose: To analyze marketing effectiveness.
+📊 Excel Steps
+Select Column D (Marketing_Expense)
+Hold Ctrl, select Column I (Sales_Value)
+Go to Insert → Scatter Chart → Scatter with markers
+Right-click on data points → Add Trendline
+Tick Display Equation and R² value
+🔍 Interpretation
+Upward trend → marketing spend drives sales
+Higher R² → strong marketing impact</t>
+  </si>
+  <si>
+    <t>EDA 4: Column Chart – Profit by Month
+🎯 Purpose:    To identify most profitable months.
+📊 Excel Steps
+Select Column A (Month) and Column J (Profit)
+Go to Insert → Column Chart → Clustered Column
+Add chart title:
+“Monthly Profit – Goldstar Shoes”
+🔍 Interpretation
+Tall bars indicate high profitability
+Chaitra shows highest profit → year-end demand</t>
+  </si>
+  <si>
+    <t>EDA 5: Scatter Plot – Distribution_Coverage vs Sales_Qty
+🎯 Purpose:    To analyze impact of retail expansion.
+📊 Excel Steps
+Select Column E (Distribution_Coverage)
+Hold Ctrl, select Column G (Sales_Qty)
+Go to Insert → Scatter Chart
+Add Trendline
+🔍 Interpretation
+Positive slope → more outlets increase sales
+Helps justify retail expansion strategy</t>
+  </si>
+  <si>
+    <t>EDA 6: Line Chart – Inventory Levels (Opening vs Closing Stock)
+🎯 Purpose:   To detect inventory accumulation or clearance.
+📊 Excel Steps
+Select Column A (Month)
+Hold Ctrl, select:
+Column B (Opening_Stock)
+Column H (Closing_Stock)
+Go to Insert → Line Chart
+Add legend:
+Opening Stock
+Closing Stock
+🔍 Interpretation
+Closing &gt; Opening → stock accumulation
+Closing &lt; Opening → good stock clearance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KPIs (7 Key Performance Indicators)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Inventory Turnover
+=Sales_Qty / ((Opening_Stock + Closing_Stock)/2)
+Marketing Cost per Unit Sold
+=Marketing_Expense / Sales_Qty
+Profit Margin (%)
+=Profit / Sales_Value * 100
+Sell-Through Rate (%)
+=Sales_Qty / (Opening_Stock + Production_Qty) * 100
+Revenue per Outlet
+=Sales_Value / Distribution_Coverage
+Average Selling Price (ASP)
+=Sales_Value / Sales_Q</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +377,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,10 +419,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -167,8 +441,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1934,4 +2233,2597 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A1FF13-CFFA-446E-AB7F-86A8E0DB24CA}">
+  <dimension ref="A1:S224"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:I197"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="P11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="8"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="8"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="8"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+      <c r="H218" s="8"/>
+      <c r="I218" s="8"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="8"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
+      <c r="H220" s="8"/>
+      <c r="I220" s="8"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="8"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A178:I197"/>
+    <mergeCell ref="A205:I224"/>
+    <mergeCell ref="A65:I89"/>
+    <mergeCell ref="A93:I117"/>
+    <mergeCell ref="A27:I58"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A122:I141"/>
+    <mergeCell ref="A151:I170"/>
+    <mergeCell ref="A1:H20"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J8:N20"/>
+    <mergeCell ref="P11:S18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{7C6DB8E7-3202-428B-A3C5-23EFABB87606}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79FB9B6-98AC-4D4A-BA1E-5118E63D205C}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11">
+        <v>8000</v>
+      </c>
+      <c r="C2" s="11">
+        <v>15000</v>
+      </c>
+      <c r="D2" s="11">
+        <v>500000</v>
+      </c>
+      <c r="E2" s="10">
+        <v>320</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2200</v>
+      </c>
+      <c r="G2" s="11">
+        <v>13500</v>
+      </c>
+      <c r="H2" s="11">
+        <v>9500</v>
+      </c>
+      <c r="I2" s="11">
+        <v>29700000</v>
+      </c>
+      <c r="J2" s="11">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11">
+        <v>9500</v>
+      </c>
+      <c r="C3" s="11">
+        <v>16000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>520000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>325</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2200</v>
+      </c>
+      <c r="G3" s="11">
+        <v>14800</v>
+      </c>
+      <c r="H3" s="11">
+        <v>10700</v>
+      </c>
+      <c r="I3" s="11">
+        <v>32560000</v>
+      </c>
+      <c r="J3" s="11">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10700</v>
+      </c>
+      <c r="C4" s="11">
+        <v>14000</v>
+      </c>
+      <c r="D4" s="11">
+        <v>480000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>325</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2150</v>
+      </c>
+      <c r="G4" s="11">
+        <v>13200</v>
+      </c>
+      <c r="H4" s="11">
+        <v>11500</v>
+      </c>
+      <c r="I4" s="11">
+        <v>28380000</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>11500</v>
+      </c>
+      <c r="C5" s="11">
+        <v>13000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>450000</v>
+      </c>
+      <c r="E5" s="10">
+        <v>330</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G5" s="11">
+        <v>12000</v>
+      </c>
+      <c r="H5" s="11">
+        <v>12500</v>
+      </c>
+      <c r="I5" s="11">
+        <v>25200000</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="11">
+        <v>12500</v>
+      </c>
+      <c r="C6" s="11">
+        <v>15500</v>
+      </c>
+      <c r="D6" s="11">
+        <v>550000</v>
+      </c>
+      <c r="E6" s="10">
+        <v>340</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2200</v>
+      </c>
+      <c r="G6" s="11">
+        <v>14600</v>
+      </c>
+      <c r="H6" s="11">
+        <v>13400</v>
+      </c>
+      <c r="I6" s="11">
+        <v>32120000</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="11">
+        <v>13400</v>
+      </c>
+      <c r="C7" s="11">
+        <v>18000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>650000</v>
+      </c>
+      <c r="E7" s="10">
+        <v>360</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2300</v>
+      </c>
+      <c r="G7" s="11">
+        <v>17200</v>
+      </c>
+      <c r="H7" s="11">
+        <v>14200</v>
+      </c>
+      <c r="I7" s="11">
+        <v>39560000</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11">
+        <v>14200</v>
+      </c>
+      <c r="C8" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="11">
+        <v>700000</v>
+      </c>
+      <c r="E8" s="10">
+        <v>380</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2400</v>
+      </c>
+      <c r="G8" s="11">
+        <v>19000</v>
+      </c>
+      <c r="H8" s="11">
+        <v>15200</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45600000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="11">
+        <v>15200</v>
+      </c>
+      <c r="C9" s="11">
+        <v>19000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>680000</v>
+      </c>
+      <c r="E9" s="10">
+        <v>380</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2350</v>
+      </c>
+      <c r="G9" s="11">
+        <v>18300</v>
+      </c>
+      <c r="H9" s="11">
+        <v>15900</v>
+      </c>
+      <c r="I9" s="11">
+        <v>43005000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11">
+        <v>15900</v>
+      </c>
+      <c r="C10" s="11">
+        <v>17000</v>
+      </c>
+      <c r="D10" s="11">
+        <v>600000</v>
+      </c>
+      <c r="E10" s="10">
+        <v>370</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2300</v>
+      </c>
+      <c r="G10" s="11">
+        <v>16500</v>
+      </c>
+      <c r="H10" s="11">
+        <v>16400</v>
+      </c>
+      <c r="I10" s="11">
+        <v>37950000</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11">
+        <v>16400</v>
+      </c>
+      <c r="C11" s="11">
+        <v>16000</v>
+      </c>
+      <c r="D11" s="11">
+        <v>580000</v>
+      </c>
+      <c r="E11" s="10">
+        <v>365</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2250</v>
+      </c>
+      <c r="G11" s="11">
+        <v>15200</v>
+      </c>
+      <c r="H11" s="11">
+        <v>17200</v>
+      </c>
+      <c r="I11" s="11">
+        <v>34200000</v>
+      </c>
+      <c r="J11" s="11">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="11">
+        <v>17200</v>
+      </c>
+      <c r="C12" s="11">
+        <v>18500</v>
+      </c>
+      <c r="D12" s="11">
+        <v>620000</v>
+      </c>
+      <c r="E12" s="10">
+        <v>375</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2300</v>
+      </c>
+      <c r="G12" s="11">
+        <v>17800</v>
+      </c>
+      <c r="H12" s="11">
+        <v>17900</v>
+      </c>
+      <c r="I12" s="11">
+        <v>40940000</v>
+      </c>
+      <c r="J12" s="11">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="11">
+        <v>17900</v>
+      </c>
+      <c r="C13" s="11">
+        <v>21000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>750000</v>
+      </c>
+      <c r="E13" s="10">
+        <v>400</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2400</v>
+      </c>
+      <c r="G13" s="11">
+        <v>20200</v>
+      </c>
+      <c r="H13" s="11">
+        <v>18700</v>
+      </c>
+      <c r="I13" s="11">
+        <v>48480000</v>
+      </c>
+      <c r="J13" s="11">
+        <v>7800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>